--- a/apps/load_data/2019/08/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/08/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0819\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2019\HHY0819\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78838964-323A-4F48-A8B4-9E15D7819D4E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3A003-F6CC-4DDC-8DBE-FFB8A6660713}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$282</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$282</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12077" uniqueCount="3323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12055" uniqueCount="3320">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7228,9 +7229,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8518,9 +8516,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8876,9 +8871,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9997,7 +9989,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10837,10 +10829,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD259" sqref="AC186:AD259"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -45428,12 +45422,7 @@
       <c r="AB186" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC186" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD186" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC186" s="3"/>
       <c r="AF186" s="1" t="s">
         <v>106</v>
       </c>
@@ -45486,7 +45475,7 @@
         <v>19</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="BE186" s="1" t="s">
         <v>113</v>
@@ -45498,10 +45487,10 @@
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
+        <v>2402</v>
+      </c>
+      <c r="BI186" s="1" t="s">
         <v>2403</v>
-      </c>
-      <c r="BI186" s="1" t="s">
-        <v>2404</v>
       </c>
       <c r="BM186" s="1" t="s">
         <v>118</v>
@@ -45516,13 +45505,13 @@
         <v>159</v>
       </c>
       <c r="BR186" s="1" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="BS186" s="3">
         <v>36225</v>
       </c>
       <c r="BT186" s="1" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="BU186" s="1" t="s">
         <v>122</v>
@@ -45543,19 +45532,19 @@
         <v>101</v>
       </c>
       <c r="CC186" s="1" t="s">
+        <v>2406</v>
+      </c>
+      <c r="CD186" s="1" t="s">
         <v>2407</v>
       </c>
-      <c r="CD186" s="1" t="s">
+      <c r="CE186" s="1" t="s">
         <v>2408</v>
       </c>
-      <c r="CE186" s="1" t="s">
+      <c r="CG186" s="1" t="s">
         <v>2409</v>
       </c>
-      <c r="CG186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2410</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2411</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -45593,13 +45582,13 @@
         <v>96</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2412</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2413</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2414</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>100</v>
@@ -45631,12 +45620,7 @@
       <c r="AB187" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="AC187" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD187" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC187" s="3"/>
       <c r="AF187" s="1" t="s">
         <v>106</v>
       </c>
@@ -45683,7 +45667,7 @@
         <v>101</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="BB187" s="1">
         <v>8</v>
@@ -45692,7 +45676,7 @@
         <v>19</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="BE187" s="1" t="s">
         <v>113</v>
@@ -45704,10 +45688,10 @@
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2416</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="BM187" s="1" t="s">
         <v>118</v>
@@ -45719,13 +45703,13 @@
         <v>102</v>
       </c>
       <c r="BR187" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BS187" s="3">
         <v>36949</v>
       </c>
       <c r="BT187" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BU187" s="1" t="s">
         <v>122</v>
@@ -45749,19 +45733,19 @@
         <v>101</v>
       </c>
       <c r="CC187" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="CD187" s="1" t="s">
         <v>2069</v>
       </c>
       <c r="CE187" s="1" t="s">
+        <v>2421</v>
+      </c>
+      <c r="CG187" s="1" t="s">
         <v>2422</v>
       </c>
-      <c r="CG187" s="1" t="s">
+      <c r="CH187" s="1" t="s">
         <v>2423</v>
-      </c>
-      <c r="CH187" s="1" t="s">
-        <v>2424</v>
       </c>
       <c r="CI187" s="1" t="s">
         <v>130</v>
@@ -45799,13 +45783,13 @@
         <v>96</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2424</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2425</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2426</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2427</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>100</v>
@@ -45837,12 +45821,7 @@
       <c r="AB188" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="AC188" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD188" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC188" s="3"/>
       <c r="AF188" s="1" t="s">
         <v>106</v>
       </c>
@@ -45889,7 +45868,7 @@
         <v>101</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="BB188" s="1">
         <v>8</v>
@@ -45898,7 +45877,7 @@
         <v>19</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BE188" s="1" t="s">
         <v>113</v>
@@ -45910,10 +45889,10 @@
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
+        <v>2429</v>
+      </c>
+      <c r="BI188" s="1" t="s">
         <v>2430</v>
-      </c>
-      <c r="BI188" s="1" t="s">
-        <v>2431</v>
       </c>
       <c r="BM188" s="1" t="s">
         <v>118</v>
@@ -45925,13 +45904,13 @@
         <v>102</v>
       </c>
       <c r="BR188" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="BS188" s="3">
         <v>36825</v>
       </c>
       <c r="BT188" s="1" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="BU188" s="1" t="s">
         <v>122</v>
@@ -45955,19 +45934,19 @@
         <v>101</v>
       </c>
       <c r="CC188" s="1" t="s">
+        <v>2433</v>
+      </c>
+      <c r="CD188" s="1" t="s">
         <v>2434</v>
       </c>
-      <c r="CD188" s="1" t="s">
+      <c r="CE188" s="1" t="s">
         <v>2435</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CG188" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="CG188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>130</v>
@@ -46005,13 +45984,13 @@
         <v>96</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>100</v>
@@ -46040,12 +46019,7 @@
       <c r="AA189" s="1">
         <v>0</v>
       </c>
-      <c r="AC189" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD189" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC189" s="3"/>
       <c r="AF189" s="1" t="s">
         <v>106</v>
       </c>
@@ -46095,7 +46069,7 @@
         <v>101</v>
       </c>
       <c r="AZ189" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BB189" s="1">
         <v>8</v>
@@ -46104,7 +46078,7 @@
         <v>19</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BE189" s="1" t="s">
         <v>113</v>
@@ -46116,7 +46090,7 @@
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BI189" s="1" t="s">
         <v>584</v>
@@ -46128,7 +46102,7 @@
         <v>105</v>
       </c>
       <c r="BT189" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BU189" s="1" t="s">
         <v>122</v>
@@ -46146,16 +46120,16 @@
         <v>101</v>
       </c>
       <c r="CC189" s="1" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="CD189" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="CE189" s="1" t="s">
+        <v>2446</v>
+      </c>
+      <c r="CG189" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CG189" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="CH189" s="1" t="s">
         <v>590</v>
@@ -46196,13 +46170,13 @@
         <v>96</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>100</v>
@@ -46234,12 +46208,7 @@
       <c r="AB190" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC190" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD190" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC190" s="3"/>
       <c r="AF190" s="1" t="s">
         <v>106</v>
       </c>
@@ -46289,7 +46258,7 @@
         <v>101</v>
       </c>
       <c r="AZ190" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BB190" s="1">
         <v>8</v>
@@ -46298,7 +46267,7 @@
         <v>19</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BE190" s="1" t="s">
         <v>113</v>
@@ -46310,13 +46279,13 @@
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="BM190" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT190" s="1" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="BU190" s="1" t="s">
         <v>122</v>
@@ -46337,13 +46306,13 @@
         <v>686</v>
       </c>
       <c r="CD190" s="1" t="s">
+        <v>2455</v>
+      </c>
+      <c r="CE190" s="1" t="s">
         <v>2456</v>
       </c>
-      <c r="CE190" s="1" t="s">
+      <c r="CG190" s="1" t="s">
         <v>2457</v>
-      </c>
-      <c r="CG190" s="1" t="s">
-        <v>2458</v>
       </c>
       <c r="CH190" s="1" t="s">
         <v>130</v>
@@ -46384,13 +46353,13 @@
         <v>96</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2458</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2460</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2461</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>100</v>
@@ -46419,12 +46388,7 @@
       <c r="AA191" s="1">
         <v>0</v>
       </c>
-      <c r="AC191" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD191" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC191" s="3"/>
       <c r="AF191" s="1" t="s">
         <v>106</v>
       </c>
@@ -46474,7 +46438,7 @@
         <v>101</v>
       </c>
       <c r="AZ191" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BB191" s="1">
         <v>8</v>
@@ -46483,7 +46447,7 @@
         <v>19</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BE191" s="1" t="s">
         <v>113</v>
@@ -46495,7 +46459,7 @@
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="BI191" s="1" t="s">
         <v>960</v>
@@ -46507,7 +46471,7 @@
         <v>105</v>
       </c>
       <c r="BT191" s="1" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="BU191" s="1" t="s">
         <v>122</v>
@@ -46525,16 +46489,16 @@
         <v>101</v>
       </c>
       <c r="CC191" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CD191" s="1" t="s">
+        <v>2465</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CD191" s="1" t="s">
-        <v>2466</v>
-      </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CG191" s="1" t="s">
         <v>2467</v>
-      </c>
-      <c r="CG191" s="1" t="s">
-        <v>2468</v>
       </c>
       <c r="CH191" s="1" t="s">
         <v>966</v>
@@ -46575,13 +46539,13 @@
         <v>96</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2468</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2469</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2470</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2471</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>100</v>
@@ -46616,12 +46580,7 @@
       <c r="AA192" s="1">
         <v>0</v>
       </c>
-      <c r="AC192" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD192" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC192" s="3"/>
       <c r="AF192" s="1" t="s">
         <v>106</v>
       </c>
@@ -46668,7 +46627,7 @@
         <v>101</v>
       </c>
       <c r="AZ192" s="1" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="BB192" s="1">
         <v>8</v>
@@ -46677,7 +46636,7 @@
         <v>19</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -46689,7 +46648,7 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BI192" s="1" t="s">
         <v>434</v>
@@ -46704,13 +46663,13 @@
         <v>119</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BS192" s="3">
         <v>35243</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -46728,16 +46687,16 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2476</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2478</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2479</v>
-      </c>
-      <c r="CG192" s="1" t="s">
-        <v>2480</v>
       </c>
       <c r="CH192" s="1" t="s">
         <v>440</v>
@@ -46778,13 +46737,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2480</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2481</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2482</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2483</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46813,12 +46772,7 @@
       <c r="AA193" s="1">
         <v>0</v>
       </c>
-      <c r="AC193" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD193" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC193" s="3"/>
       <c r="AF193" s="1" t="s">
         <v>106</v>
       </c>
@@ -46868,7 +46822,7 @@
         <v>101</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="BB193" s="1">
         <v>8</v>
@@ -46877,7 +46831,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -46889,7 +46843,7 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BI193" s="1" t="s">
         <v>973</v>
@@ -46901,7 +46855,7 @@
         <v>105</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -46919,16 +46873,16 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="CD193" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="CD193" s="1" t="s">
+      <c r="CE193" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CE193" s="1" t="s">
+      <c r="CG193" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="CG193" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="CH193" s="1" t="s">
         <v>978</v>
@@ -46969,13 +46923,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -47004,12 +46958,7 @@
       <c r="AA194" s="1">
         <v>0</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>106</v>
       </c>
@@ -47059,7 +47008,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BB194" s="1">
         <v>8</v>
@@ -47068,7 +47017,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -47080,7 +47029,7 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BI194" s="1" t="s">
         <v>747</v>
@@ -47095,7 +47044,7 @@
         <v>159</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -47113,16 +47062,16 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2498</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2499</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2500</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2501</v>
-      </c>
-      <c r="CG194" s="1" t="s">
-        <v>2502</v>
       </c>
       <c r="CH194" s="1" t="s">
         <v>753</v>
@@ -47163,13 +47112,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2502</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2503</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2504</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2505</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -47198,12 +47147,7 @@
       <c r="AA195" s="1">
         <v>0</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -47250,7 +47194,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="BB195" s="1">
         <v>8</v>
@@ -47259,7 +47203,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -47271,10 +47215,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2507</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2508</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2509</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -47286,13 +47230,13 @@
         <v>219</v>
       </c>
       <c r="BR195" s="1" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="BS195" s="3">
         <v>34307</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -47310,19 +47254,19 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="CD195" s="1" t="s">
         <v>424</v>
       </c>
       <c r="CE195" s="1" t="s">
+        <v>2512</v>
+      </c>
+      <c r="CG195" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2514</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2515</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -47360,13 +47304,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2517</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2518</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47398,12 +47342,7 @@
       <c r="AA196" s="1">
         <v>0</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>106</v>
       </c>
@@ -47453,7 +47392,7 @@
         <v>101</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="BB196" s="1">
         <v>8</v>
@@ -47462,7 +47401,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47474,7 +47413,7 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BI196" s="1" t="s">
         <v>380</v>
@@ -47486,7 +47425,7 @@
         <v>105</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47507,16 +47446,16 @@
         <v>101</v>
       </c>
       <c r="CC196" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="CD196" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="CD196" s="1" t="s">
+      <c r="CE196" s="1" t="s">
         <v>2524</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2525</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2526</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>388</v>
@@ -47557,13 +47496,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2528</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2529</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47592,12 +47531,7 @@
       <c r="AA197" s="1">
         <v>0</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2401</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>106</v>
       </c>
@@ -47644,7 +47578,7 @@
         <v>101</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="BB197" s="1">
         <v>8</v>
@@ -47653,7 +47587,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47665,10 +47599,10 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
+        <v>2531</v>
+      </c>
+      <c r="BI197" s="1" t="s">
         <v>2532</v>
-      </c>
-      <c r="BI197" s="1" t="s">
-        <v>2533</v>
       </c>
       <c r="BM197" s="1" t="s">
         <v>118</v>
@@ -47680,13 +47614,13 @@
         <v>119</v>
       </c>
       <c r="BR197" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BS197" s="3">
         <v>35950</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47704,19 +47638,19 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="CD197" s="1" t="s">
         <v>1870</v>
       </c>
       <c r="CE197" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="CG197" s="1" t="s">
         <v>2537</v>
       </c>
-      <c r="CG197" s="1" t="s">
+      <c r="CH197" s="1" t="s">
         <v>2538</v>
-      </c>
-      <c r="CH197" s="1" t="s">
-        <v>2539</v>
       </c>
       <c r="CI197" s="1" t="s">
         <v>130</v>
@@ -47754,10 +47688,10 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="L198" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>1688</v>
@@ -47838,7 +47772,7 @@
         <v>1692</v>
       </c>
       <c r="CE198" s="1" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="199" spans="1:87" x14ac:dyDescent="0.25">
@@ -47873,13 +47807,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47960,7 +47894,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BB199" s="1">
         <v>8</v>
@@ -47969,7 +47903,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -47981,7 +47915,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1163</v>
@@ -47996,7 +47930,7 @@
         <v>159</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -48014,16 +47948,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="CD199" s="1" t="s">
         <v>424</v>
       </c>
       <c r="CE199" s="1" t="s">
+        <v>2549</v>
+      </c>
+      <c r="CG199" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>1169</v>
@@ -48064,13 +47998,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2551</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2553</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2554</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -48145,7 +48079,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BB200" s="1">
         <v>8</v>
@@ -48154,7 +48088,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -48166,10 +48100,10 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
+        <v>2556</v>
+      </c>
+      <c r="BI200" s="1" t="s">
         <v>2557</v>
-      </c>
-      <c r="BI200" s="1" t="s">
-        <v>2558</v>
       </c>
       <c r="BM200" s="1" t="s">
         <v>118</v>
@@ -48181,13 +48115,13 @@
         <v>219</v>
       </c>
       <c r="BR200" s="1" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="BS200" s="3">
         <v>36099</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -48205,19 +48139,19 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2560</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2561</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2562</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="CG200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -48255,13 +48189,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2567</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2568</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -48336,7 +48270,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="BB201" s="1">
         <v>8</v>
@@ -48345,7 +48279,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48357,10 +48291,10 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="BI201" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="BI201" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="BM201" s="1" t="s">
         <v>118</v>
@@ -48372,13 +48306,13 @@
         <v>102</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="BS201" s="3">
         <v>37735</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48396,19 +48330,19 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="CD201" s="1" t="s">
         <v>2575</v>
       </c>
-      <c r="CD201" s="1" t="s">
+      <c r="CE201" s="1" t="s">
         <v>2576</v>
       </c>
-      <c r="CE201" s="1" t="s">
+      <c r="CG201" s="1" t="s">
         <v>2577</v>
       </c>
-      <c r="CG201" s="1" t="s">
+      <c r="CH201" s="1" t="s">
         <v>2578</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2579</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>130</v>
@@ -48446,13 +48380,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48530,7 +48464,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BB202" s="1">
         <v>8</v>
@@ -48539,7 +48473,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48551,7 +48485,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>380</v>
@@ -48563,7 +48497,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48581,16 +48515,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="CD202" s="1" t="s">
         <v>895</v>
       </c>
       <c r="CE202" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="CG202" s="1" t="s">
         <v>2588</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2589</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>388</v>
@@ -48631,13 +48565,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2589</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48670,7 +48604,7 @@
         <v>106</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>1990</v>
@@ -48715,7 +48649,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="BB203" s="1">
         <v>8</v>
@@ -48724,7 +48658,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -48736,7 +48670,7 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -48745,7 +48679,7 @@
         <v>105</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -48766,13 +48700,13 @@
         <v>1637</v>
       </c>
       <c r="CD203" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="CE203" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="CE203" s="1" t="s">
+      <c r="CG203" s="1" t="s">
         <v>2599</v>
-      </c>
-      <c r="CG203" s="1" t="s">
-        <v>2600</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>130</v>
@@ -48813,13 +48747,13 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2600</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2602</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2603</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>100</v>
@@ -48897,7 +48831,7 @@
         <v>101</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="BB204" s="1">
         <v>8</v>
@@ -48906,7 +48840,7 @@
         <v>19</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="BE204" s="1" t="s">
         <v>113</v>
@@ -48918,10 +48852,10 @@
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
+        <v>2605</v>
+      </c>
+      <c r="BI204" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="BI204" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="BM204" s="1" t="s">
         <v>118</v>
@@ -48933,13 +48867,13 @@
         <v>102</v>
       </c>
       <c r="BR204" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BS204" s="3">
         <v>43602</v>
       </c>
       <c r="BT204" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BU204" s="1" t="s">
         <v>122</v>
@@ -48963,13 +48897,13 @@
         <v>986</v>
       </c>
       <c r="CE204" s="1" t="s">
+        <v>2609</v>
+      </c>
+      <c r="CG204" s="1" t="s">
         <v>2610</v>
       </c>
-      <c r="CG204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2611</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2612</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>130</v>
@@ -49007,13 +48941,13 @@
         <v>96</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2612</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2613</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2614</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2615</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>100</v>
@@ -49091,7 +49025,7 @@
         <v>101</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="BB205" s="1">
         <v>8</v>
@@ -49100,7 +49034,7 @@
         <v>19</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="BE205" s="1" t="s">
         <v>113</v>
@@ -49112,7 +49046,7 @@
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="BI205" s="1" t="s">
         <v>973</v>
@@ -49124,7 +49058,7 @@
         <v>105</v>
       </c>
       <c r="BT205" s="1" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="BU205" s="1" t="s">
         <v>122</v>
@@ -49142,16 +49076,16 @@
         <v>101</v>
       </c>
       <c r="CC205" s="1" t="s">
+        <v>2619</v>
+      </c>
+      <c r="CD205" s="1" t="s">
         <v>2620</v>
       </c>
-      <c r="CD205" s="1" t="s">
+      <c r="CE205" s="1" t="s">
         <v>2621</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CG205" s="1" t="s">
         <v>2622</v>
-      </c>
-      <c r="CG205" s="1" t="s">
-        <v>2623</v>
       </c>
       <c r="CH205" s="1" t="s">
         <v>978</v>
@@ -49192,13 +49126,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2626</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -49237,7 +49171,7 @@
         <v>42247</v>
       </c>
       <c r="AD206" s="1" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="AF206" s="1" t="s">
         <v>106</v>
@@ -49291,7 +49225,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -49303,10 +49237,10 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
+        <v>2628</v>
+      </c>
+      <c r="BI206" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="BI206" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="BM206" s="1" t="s">
         <v>118</v>
@@ -49318,13 +49252,13 @@
         <v>219</v>
       </c>
       <c r="BR206" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BS206" s="3">
         <v>36580</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -49345,7 +49279,7 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="CD206" s="1" t="s">
         <v>294</v>
@@ -49354,10 +49288,10 @@
         <v>1666</v>
       </c>
       <c r="CG206" s="1" t="s">
+        <v>2633</v>
+      </c>
+      <c r="CH206" s="1" t="s">
         <v>2634</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2635</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49395,13 +49329,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2636</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2637</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2638</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49482,7 +49416,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49494,7 +49428,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1163</v>
@@ -49509,13 +49443,13 @@
         <v>119</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BS207" s="3">
         <v>37747</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49539,10 +49473,10 @@
         <v>674</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2642</v>
+      </c>
+      <c r="CG207" s="1" t="s">
         <v>2643</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2644</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1169</v>
@@ -49583,13 +49517,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2646</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2647</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49673,7 +49607,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49685,7 +49619,7 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -49694,7 +49628,7 @@
         <v>105</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49712,16 +49646,16 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2650</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2651</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2652</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2653</v>
-      </c>
-      <c r="CG208" s="1" t="s">
-        <v>2654</v>
       </c>
       <c r="CH208" s="1" t="s">
         <v>130</v>
@@ -49762,13 +49696,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2656</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2657</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49852,7 +49786,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49864,7 +49798,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>973</v>
@@ -49876,7 +49810,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -49894,16 +49828,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CD209" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="CD209" s="1" t="s">
+      <c r="CE209" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="CE209" s="1" t="s">
+      <c r="CG209" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2664</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>978</v>
@@ -49944,13 +49878,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2665</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2667</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -50031,7 +49965,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -50043,10 +49977,10 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
+        <v>2668</v>
+      </c>
+      <c r="BI210" s="1" t="s">
         <v>2669</v>
-      </c>
-      <c r="BI210" s="1" t="s">
-        <v>2670</v>
       </c>
       <c r="BM210" s="1" t="s">
         <v>118</v>
@@ -50058,13 +49992,13 @@
         <v>102</v>
       </c>
       <c r="BR210" s="1" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
       <c r="BS210" s="3">
         <v>37334</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -50085,16 +50019,16 @@
         <v>522</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2672</v>
+      </c>
+      <c r="CE210" s="1" t="s">
         <v>2673</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2674</v>
       </c>
-      <c r="CG210" s="1" t="s">
+      <c r="CH210" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="CH210" s="1" t="s">
-        <v>2676</v>
       </c>
       <c r="CI210" s="1" t="s">
         <v>130</v>
@@ -50132,13 +50066,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2676</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -50219,7 +50153,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -50231,10 +50165,10 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
+        <v>2680</v>
+      </c>
+      <c r="BI211" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="BI211" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="BM211" s="1" t="s">
         <v>118</v>
@@ -50246,13 +50180,13 @@
         <v>102</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BS211" s="3">
         <v>37904</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -50273,16 +50207,16 @@
         <v>986</v>
       </c>
       <c r="CD211" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="CE211" s="1" t="s">
         <v>2685</v>
       </c>
-      <c r="CE211" s="1" t="s">
+      <c r="CG211" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="CG211" s="1" t="s">
+      <c r="CH211" s="1" t="s">
         <v>2687</v>
-      </c>
-      <c r="CH211" s="1" t="s">
-        <v>2688</v>
       </c>
       <c r="CI211" s="1" t="s">
         <v>130</v>
@@ -50320,13 +50254,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2688</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2689</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2690</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2691</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -50407,7 +50341,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50419,7 +50353,7 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BM212" s="1" t="s">
         <v>118</v>
@@ -50431,13 +50365,13 @@
         <v>119</v>
       </c>
       <c r="BR212" s="1" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BS212" s="3">
         <v>36111</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50455,16 +50389,16 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="CD212" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="CE212" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="CG212" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2698</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>130</v>
@@ -50505,13 +50439,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2698</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50592,7 +50526,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50604,10 +50538,10 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>118</v>
@@ -50619,13 +50553,13 @@
         <v>119</v>
       </c>
       <c r="BR213" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BS213" s="3">
         <v>37785</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50643,19 +50577,19 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="CD213" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="CD213" s="1" t="s">
+      <c r="CE213" s="1" t="s">
         <v>2708</v>
       </c>
-      <c r="CE213" s="1" t="s">
+      <c r="CG213" s="1" t="s">
         <v>2709</v>
       </c>
-      <c r="CG213" s="1" t="s">
+      <c r="CH213" s="1" t="s">
         <v>2710</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2711</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>130</v>
@@ -50693,13 +50627,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2712</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2713</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2714</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -50783,7 +50717,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50795,7 +50729,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>1969</v>
@@ -50807,7 +50741,7 @@
         <v>105</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50828,13 +50762,13 @@
         <v>1300</v>
       </c>
       <c r="CD214" s="1" t="s">
+        <v>2717</v>
+      </c>
+      <c r="CE214" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="CE214" s="1" t="s">
+      <c r="CG214" s="1" t="s">
         <v>2719</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2720</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>1976</v>
@@ -50875,13 +50809,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2720</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -50959,7 +50893,7 @@
         <v>101</v>
       </c>
       <c r="AZ215" s="1" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="BB215" s="1">
         <v>8</v>
@@ -50968,7 +50902,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -50980,7 +50914,7 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>118</v>
@@ -50989,7 +50923,7 @@
         <v>105</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -51007,16 +50941,16 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2730</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2731</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>130</v>
@@ -51057,13 +50991,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2733</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2734</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -51141,7 +51075,7 @@
         <v>101</v>
       </c>
       <c r="AZ216" s="1" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="BB216" s="1">
         <v>8</v>
@@ -51150,7 +51084,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -51162,7 +51096,7 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>1163</v>
@@ -51174,7 +51108,7 @@
         <v>105</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -51192,16 +51126,16 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="CD216" s="1" t="s">
         <v>1154</v>
       </c>
       <c r="CE216" s="1" t="s">
+        <v>2738</v>
+      </c>
+      <c r="CG216" s="1" t="s">
         <v>2739</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2740</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>1169</v>
@@ -51242,13 +51176,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2740</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2742</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2743</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -51326,7 +51260,7 @@
         <v>101</v>
       </c>
       <c r="AZ217" s="1" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="BB217" s="1">
         <v>8</v>
@@ -51335,7 +51269,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -51347,7 +51281,7 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -51356,7 +51290,7 @@
         <v>105</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -51377,13 +51311,13 @@
         <v>1154</v>
       </c>
       <c r="CD217" s="1" t="s">
+        <v>2747</v>
+      </c>
+      <c r="CE217" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2749</v>
-      </c>
-      <c r="CG217" s="1" t="s">
-        <v>2750</v>
       </c>
       <c r="CH217" s="1" t="s">
         <v>130</v>
@@ -51424,13 +51358,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2750</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2752</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2753</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51508,7 +51442,7 @@
         <v>101</v>
       </c>
       <c r="AZ218" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="BB218" s="1">
         <v>8</v>
@@ -51517,7 +51451,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51529,7 +51463,7 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="BI218" s="1" t="s">
         <v>1969</v>
@@ -51544,13 +51478,13 @@
         <v>159</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="BS218" s="3">
         <v>37513</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51568,16 +51502,16 @@
         <v>101</v>
       </c>
       <c r="CC218" s="1" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="CD218" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE218" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="CG218" s="1" t="s">
         <v>2760</v>
-      </c>
-      <c r="CG218" s="1" t="s">
-        <v>2761</v>
       </c>
       <c r="CH218" s="1" t="s">
         <v>1976</v>
@@ -51618,13 +51552,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2761</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2763</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51705,7 +51639,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51717,10 +51651,10 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="BI219" s="1" t="s">
         <v>2766</v>
-      </c>
-      <c r="BI219" s="1" t="s">
-        <v>2767</v>
       </c>
       <c r="BM219" s="1" t="s">
         <v>118</v>
@@ -51732,13 +51666,13 @@
         <v>102</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="BS219" s="3">
         <v>41024</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51756,19 +51690,19 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
+        <v>2769</v>
+      </c>
+      <c r="CD219" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="CD219" s="1" t="s">
+      <c r="CE219" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="CE219" s="1" t="s">
+      <c r="CG219" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="CG219" s="1" t="s">
+      <c r="CH219" s="1" t="s">
         <v>2773</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2774</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>130</v>
@@ -51806,13 +51740,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2774</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2776</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2777</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51845,7 +51779,7 @@
         <v>106</v>
       </c>
       <c r="AG220" s="1" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="AH220" s="1" t="s">
         <v>1990</v>
@@ -51869,28 +51803,28 @@
         <v>110</v>
       </c>
       <c r="AQ220" s="1" t="s">
+        <v>2777</v>
+      </c>
+      <c r="AR220" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS220" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT220" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU220" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV220" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY220" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ220" s="1" t="s">
         <v>2778</v>
-      </c>
-      <c r="AR220" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS220" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT220" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU220" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV220" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY220" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ220" s="1" t="s">
-        <v>2779</v>
       </c>
       <c r="BB220" s="1">
         <v>8</v>
@@ -51899,7 +51833,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51911,7 +51845,7 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BI220" s="1" t="s">
         <v>1969</v>
@@ -51926,13 +51860,13 @@
         <v>119</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BS220" s="3">
         <v>34808</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51950,16 +51884,16 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2783</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2786</v>
-      </c>
-      <c r="CG220" s="1" t="s">
-        <v>2787</v>
       </c>
       <c r="CH220" s="1" t="s">
         <v>1976</v>
@@ -52000,13 +51934,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2787</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2789</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2790</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -52081,7 +52015,7 @@
         <v>101</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="BB221" s="1">
         <v>8</v>
@@ -52090,7 +52024,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -52102,10 +52036,10 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
+        <v>2792</v>
+      </c>
+      <c r="BI221" s="1" t="s">
         <v>2793</v>
-      </c>
-      <c r="BI221" s="1" t="s">
-        <v>2794</v>
       </c>
       <c r="BM221" s="1" t="s">
         <v>118</v>
@@ -52117,13 +52051,13 @@
         <v>102</v>
       </c>
       <c r="BR221" s="1" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="BS221" s="3">
         <v>37336</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -52141,19 +52075,19 @@
         <v>101</v>
       </c>
       <c r="CC221" s="1" t="s">
+        <v>2796</v>
+      </c>
+      <c r="CD221" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="CD221" s="1" t="s">
+      <c r="CE221" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="CE221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2799</v>
       </c>
-      <c r="CG221" s="1" t="s">
+      <c r="CH221" s="1" t="s">
         <v>2800</v>
-      </c>
-      <c r="CH221" s="1" t="s">
-        <v>2801</v>
       </c>
       <c r="CI221" s="1" t="s">
         <v>130</v>
@@ -52191,13 +52125,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2801</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2804</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -52275,7 +52209,7 @@
         <v>101</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BB222" s="1">
         <v>8</v>
@@ -52284,7 +52218,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -52296,7 +52230,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="BI222" s="1" t="s">
         <v>584</v>
@@ -52308,7 +52242,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -52326,16 +52260,16 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>590</v>
@@ -52376,13 +52310,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52466,7 +52400,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52478,7 +52412,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BM223" s="1" t="s">
         <v>118</v>
@@ -52487,7 +52421,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52505,16 +52439,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CD223" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="CD223" s="1" t="s">
+      <c r="CE223" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="CE223" s="1" t="s">
+      <c r="CG223" s="1" t="s">
         <v>2821</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2822</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>130</v>
@@ -52537,7 +52471,7 @@
         <v>90</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>92</v>
@@ -52549,16 +52483,16 @@
         <v>94</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2824</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2825</v>
-      </c>
-      <c r="L224" s="1" t="s">
-        <v>2826</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>110</v>
@@ -52627,7 +52561,7 @@
         <v>0</v>
       </c>
       <c r="BZ224" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="CA224" s="1" t="s">
         <v>124</v>
@@ -52639,7 +52573,7 @@
         <v>1692</v>
       </c>
       <c r="CE224" s="1" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="225" spans="1:87" x14ac:dyDescent="0.25">
@@ -52674,13 +52608,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2827</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2828</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2829</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2830</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52715,12 +52649,7 @@
       <c r="AA225" s="1">
         <v>0</v>
       </c>
-      <c r="AC225" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD225" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC225" s="3"/>
       <c r="AF225" s="1" t="s">
         <v>106</v>
       </c>
@@ -52770,7 +52699,7 @@
         <v>101</v>
       </c>
       <c r="AZ225" s="1" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="BB225" s="1">
         <v>8</v>
@@ -52779,7 +52708,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52791,10 +52720,10 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="BI225" s="1" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="BM225" s="1" t="s">
         <v>118</v>
@@ -52803,7 +52732,7 @@
         <v>105</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52827,16 +52756,16 @@
         <v>1205</v>
       </c>
       <c r="CD225" s="1" t="s">
+        <v>2835</v>
+      </c>
+      <c r="CE225" s="1" t="s">
+        <v>2836</v>
+      </c>
+      <c r="CG225" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="CE225" s="1" t="s">
+      <c r="CH225" s="1" t="s">
         <v>2838</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2839</v>
-      </c>
-      <c r="CH225" s="1" t="s">
-        <v>2840</v>
       </c>
       <c r="CI225" s="1" t="s">
         <v>130</v>
@@ -52874,10 +52803,10 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>110</v>
@@ -52901,7 +52830,7 @@
         <v>106</v>
       </c>
       <c r="AG226" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="AH226" s="1" t="s">
         <v>61</v>
@@ -52946,7 +52875,7 @@
         <v>0</v>
       </c>
       <c r="BZ226" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CA226" s="1" t="s">
         <v>124</v>
@@ -52958,7 +52887,7 @@
         <v>1692</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="227" spans="1:87" x14ac:dyDescent="0.25">
@@ -52993,10 +52922,10 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>110</v>
@@ -53083,7 +53012,7 @@
         <v>1692</v>
       </c>
       <c r="CE227" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="228" spans="1:87" x14ac:dyDescent="0.25">
@@ -53100,7 +53029,7 @@
         <v>90</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>92</v>
@@ -53112,16 +53041,16 @@
         <v>94</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>110</v>
@@ -53190,7 +53119,7 @@
         <v>0</v>
       </c>
       <c r="BZ228" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="CA228" s="1" t="s">
         <v>124</v>
@@ -53202,7 +53131,7 @@
         <v>1692</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="229" spans="1:87" x14ac:dyDescent="0.25">
@@ -53237,10 +53166,10 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>110</v>
@@ -53264,7 +53193,7 @@
         <v>106</v>
       </c>
       <c r="AG229" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH229" s="1" t="s">
         <v>376</v>
@@ -53321,7 +53250,7 @@
         <v>1692</v>
       </c>
       <c r="CE229" s="1" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="230" spans="1:87" x14ac:dyDescent="0.25">
@@ -53356,10 +53285,10 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>110</v>
@@ -53383,7 +53312,7 @@
         <v>106</v>
       </c>
       <c r="AG230" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH230" s="1" t="s">
         <v>376</v>
@@ -53440,7 +53369,7 @@
         <v>1692</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="231" spans="1:87" x14ac:dyDescent="0.25">
@@ -53475,10 +53404,10 @@
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>110</v>
@@ -53502,7 +53431,7 @@
         <v>106</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>376</v>
@@ -53559,7 +53488,7 @@
         <v>1692</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="232" spans="1:87" x14ac:dyDescent="0.25">
@@ -53594,10 +53523,10 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>110</v>
@@ -53621,7 +53550,7 @@
         <v>106</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>376</v>
@@ -53678,7 +53607,7 @@
         <v>1692</v>
       </c>
       <c r="CE232" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="233" spans="1:87" x14ac:dyDescent="0.25">
@@ -53713,10 +53642,10 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>110</v>
@@ -53797,7 +53726,7 @@
         <v>1692</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="234" spans="1:87" x14ac:dyDescent="0.25">
@@ -53832,10 +53761,10 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>110</v>
@@ -53916,7 +53845,7 @@
         <v>1692</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -53951,10 +53880,10 @@
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>110</v>
@@ -54035,7 +53964,7 @@
         <v>1692</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="236" spans="1:87" x14ac:dyDescent="0.25">
@@ -54070,10 +53999,10 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>110</v>
@@ -54154,7 +54083,7 @@
         <v>1692</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54189,13 +54118,13 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
+        <v>2864</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>2865</v>
+      </c>
+      <c r="N237" s="1" t="s">
         <v>2866</v>
-      </c>
-      <c r="L237" s="1" t="s">
-        <v>2867</v>
-      </c>
-      <c r="N237" s="1" t="s">
-        <v>2868</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>100</v>
@@ -54224,12 +54153,7 @@
       <c r="AA237" s="1">
         <v>0</v>
       </c>
-      <c r="AC237" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD237" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC237" s="3"/>
       <c r="AF237" s="1" t="s">
         <v>106</v>
       </c>
@@ -54282,7 +54206,7 @@
         <v>19</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="BE237" s="1" t="s">
         <v>113</v>
@@ -54294,7 +54218,7 @@
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="BI237" s="1" t="s">
         <v>1969</v>
@@ -54309,13 +54233,13 @@
         <v>102</v>
       </c>
       <c r="BR237" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="BS237" s="3">
         <v>36306</v>
       </c>
       <c r="BT237" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="BU237" s="1" t="s">
         <v>122</v>
@@ -54333,16 +54257,16 @@
         <v>101</v>
       </c>
       <c r="CC237" s="1" t="s">
+        <v>2871</v>
+      </c>
+      <c r="CD237" s="1" t="s">
+        <v>2872</v>
+      </c>
+      <c r="CE237" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="CD237" s="1" t="s">
+      <c r="CG237" s="1" t="s">
         <v>2874</v>
-      </c>
-      <c r="CE237" s="1" t="s">
-        <v>2875</v>
-      </c>
-      <c r="CG237" s="1" t="s">
-        <v>2876</v>
       </c>
       <c r="CH237" s="1" t="s">
         <v>1976</v>
@@ -54383,13 +54307,13 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
+        <v>2875</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>2876</v>
+      </c>
+      <c r="N238" s="1" t="s">
         <v>2877</v>
-      </c>
-      <c r="L238" s="1" t="s">
-        <v>2878</v>
-      </c>
-      <c r="N238" s="1" t="s">
-        <v>2879</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>100</v>
@@ -54418,12 +54342,7 @@
       <c r="AA238" s="1">
         <v>0</v>
       </c>
-      <c r="AC238" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD238" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC238" s="3"/>
       <c r="AF238" s="1" t="s">
         <v>106</v>
       </c>
@@ -54479,7 +54398,7 @@
         <v>19</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="BE238" s="1" t="s">
         <v>113</v>
@@ -54491,7 +54410,7 @@
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="BM238" s="1" t="s">
         <v>118</v>
@@ -54500,7 +54419,7 @@
         <v>105</v>
       </c>
       <c r="BT238" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="BU238" s="1" t="s">
         <v>122</v>
@@ -54518,16 +54437,16 @@
         <v>101</v>
       </c>
       <c r="CC238" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="CD238" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="CG238" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="CH238" s="1" t="s">
         <v>130</v>
@@ -54568,13 +54487,13 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
+        <v>2884</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>2885</v>
+      </c>
+      <c r="N239" s="1" t="s">
         <v>2886</v>
-      </c>
-      <c r="L239" s="1" t="s">
-        <v>2887</v>
-      </c>
-      <c r="N239" s="1" t="s">
-        <v>2888</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>100</v>
@@ -54606,12 +54525,7 @@
       <c r="AB239" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC239" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD239" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC239" s="3"/>
       <c r="AF239" s="1" t="s">
         <v>106</v>
       </c>
@@ -54664,7 +54578,7 @@
         <v>19</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="BE239" s="1" t="s">
         <v>113</v>
@@ -54676,7 +54590,7 @@
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="BI239" s="1" t="s">
         <v>1969</v>
@@ -54691,13 +54605,13 @@
         <v>102</v>
       </c>
       <c r="BR239" s="1" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="BS239" s="3">
         <v>38234</v>
       </c>
       <c r="BT239" s="1" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="BU239" s="1" t="s">
         <v>122</v>
@@ -54715,16 +54629,16 @@
         <v>101</v>
       </c>
       <c r="CC239" s="1" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="CD239" s="1" t="s">
         <v>1044</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="CG239" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="CH239" s="1" t="s">
         <v>1976</v>
@@ -54765,13 +54679,13 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
+        <v>2894</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>2895</v>
+      </c>
+      <c r="N240" s="1" t="s">
         <v>2896</v>
-      </c>
-      <c r="L240" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="N240" s="1" t="s">
-        <v>2898</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>100</v>
@@ -54800,12 +54714,7 @@
       <c r="AA240" s="1">
         <v>0</v>
       </c>
-      <c r="AC240" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD240" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC240" s="3"/>
       <c r="AF240" s="1" t="s">
         <v>106</v>
       </c>
@@ -54861,7 +54770,7 @@
         <v>19</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="BE240" s="1" t="s">
         <v>113</v>
@@ -54873,7 +54782,7 @@
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="BI240" s="1" t="s">
         <v>960</v>
@@ -54885,7 +54794,7 @@
         <v>105</v>
       </c>
       <c r="BT240" s="1" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="BU240" s="1" t="s">
         <v>122</v>
@@ -54903,16 +54812,16 @@
         <v>101</v>
       </c>
       <c r="CC240" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="CD240" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="CE240" s="1" t="s">
         <v>2902</v>
       </c>
-      <c r="CD240" s="1" t="s">
+      <c r="CG240" s="1" t="s">
         <v>2903</v>
-      </c>
-      <c r="CE240" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="CG240" s="1" t="s">
-        <v>2905</v>
       </c>
       <c r="CH240" s="1" t="s">
         <v>966</v>
@@ -54953,13 +54862,13 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
+        <v>2904</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>2905</v>
+      </c>
+      <c r="N241" s="1" t="s">
         <v>2906</v>
-      </c>
-      <c r="L241" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>2908</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>100</v>
@@ -54991,12 +54900,7 @@
       <c r="AB241" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="AC241" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD241" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC241" s="3"/>
       <c r="AE241" s="3">
         <v>43611</v>
       </c>
@@ -55055,13 +54959,13 @@
         <v>19</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="BM241" s="1" t="s">
         <v>118</v>
@@ -55070,7 +54974,7 @@
         <v>105</v>
       </c>
       <c r="BT241" s="1" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="BU241" s="1" t="s">
         <v>122</v>
@@ -55088,16 +54992,16 @@
         <v>101</v>
       </c>
       <c r="CC241" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="CD241" s="1" t="s">
+        <v>2911</v>
+      </c>
+      <c r="CE241" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="CD241" s="1" t="s">
+      <c r="CG241" s="1" t="s">
         <v>2913</v>
-      </c>
-      <c r="CE241" s="1" t="s">
-        <v>2914</v>
-      </c>
-      <c r="CG241" s="1" t="s">
-        <v>2915</v>
       </c>
       <c r="CH241" s="1" t="s">
         <v>130</v>
@@ -55138,13 +55042,13 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
+        <v>2914</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>2915</v>
+      </c>
+      <c r="N242" s="1" t="s">
         <v>2916</v>
-      </c>
-      <c r="L242" s="1" t="s">
-        <v>2917</v>
-      </c>
-      <c r="N242" s="1" t="s">
-        <v>2918</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>100</v>
@@ -55173,12 +55077,7 @@
       <c r="AA242" s="1">
         <v>0</v>
       </c>
-      <c r="AC242" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD242" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC242" s="3"/>
       <c r="AF242" s="1" t="s">
         <v>106</v>
       </c>
@@ -55231,7 +55130,7 @@
         <v>19</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="BE242" s="1" t="s">
         <v>113</v>
@@ -55243,10 +55142,10 @@
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="BI242" s="1" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="BM242" s="1" t="s">
         <v>118</v>
@@ -55258,13 +55157,13 @@
         <v>219</v>
       </c>
       <c r="BR242" s="1" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="BS242" s="3">
         <v>37069</v>
       </c>
       <c r="BT242" s="1" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="BU242" s="1" t="s">
         <v>122</v>
@@ -55285,16 +55184,16 @@
         <v>763</v>
       </c>
       <c r="CD242" s="1" t="s">
+        <v>2922</v>
+      </c>
+      <c r="CE242" s="1" t="s">
+        <v>2923</v>
+      </c>
+      <c r="CG242" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="CE242" s="1" t="s">
+      <c r="CH242" s="1" t="s">
         <v>2925</v>
-      </c>
-      <c r="CG242" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="CH242" s="1" t="s">
-        <v>2927</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>130</v>
@@ -55332,13 +55231,13 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>2927</v>
+      </c>
+      <c r="N243" s="1" t="s">
         <v>2928</v>
-      </c>
-      <c r="L243" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="N243" s="1" t="s">
-        <v>2930</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>100</v>
@@ -55367,12 +55266,7 @@
       <c r="AA243" s="1">
         <v>0</v>
       </c>
-      <c r="AC243" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD243" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC243" s="3"/>
       <c r="AF243" s="1" t="s">
         <v>106</v>
       </c>
@@ -55428,7 +55322,7 @@
         <v>19</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="BE243" s="1" t="s">
         <v>113</v>
@@ -55440,7 +55334,7 @@
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="BI243" s="1" t="s">
         <v>960</v>
@@ -55452,7 +55346,7 @@
         <v>105</v>
       </c>
       <c r="BT243" s="1" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="BU243" s="1" t="s">
         <v>122</v>
@@ -55470,16 +55364,16 @@
         <v>101</v>
       </c>
       <c r="CC243" s="1" t="s">
+        <v>2932</v>
+      </c>
+      <c r="CD243" s="1" t="s">
+        <v>2933</v>
+      </c>
+      <c r="CE243" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="CD243" s="1" t="s">
+      <c r="CG243" s="1" t="s">
         <v>2935</v>
-      </c>
-      <c r="CE243" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="CG243" s="1" t="s">
-        <v>2937</v>
       </c>
       <c r="CH243" s="1" t="s">
         <v>966</v>
@@ -55520,13 +55414,13 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="N244" s="1" t="s">
         <v>2938</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2940</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55562,7 +55456,7 @@
         <v>43403</v>
       </c>
       <c r="AD244" s="1" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
       <c r="AE244" s="3">
         <v>43677</v>
@@ -55616,7 +55510,7 @@
         <v>101</v>
       </c>
       <c r="AZ244" s="1" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
       <c r="BB244" s="1">
         <v>8</v>
@@ -55625,13 +55519,13 @@
         <v>19</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="BG244" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="BM244" s="1" t="s">
         <v>118</v>
@@ -55640,7 +55534,7 @@
         <v>105</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -55658,16 +55552,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="CD244" s="1" t="s">
         <v>2080</v>
       </c>
       <c r="CE244" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="CG244" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -55708,13 +55602,13 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2946</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>2947</v>
+      </c>
+      <c r="N245" s="1" t="s">
         <v>2948</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2950</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55743,12 +55637,7 @@
       <c r="AA245" s="1">
         <v>0</v>
       </c>
-      <c r="AC245" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2951</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>106</v>
       </c>
@@ -55795,7 +55684,7 @@
         <v>101</v>
       </c>
       <c r="AZ245" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="BB245" s="1">
         <v>8</v>
@@ -55804,7 +55693,7 @@
         <v>19</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -55816,10 +55705,10 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="BI245" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BJ245" s="1" t="s">
         <v>273</v>
@@ -55834,13 +55723,13 @@
         <v>219</v>
       </c>
       <c r="BR245" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BS245" s="3">
         <v>35125</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -55858,19 +55747,19 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CH245" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>281</v>
@@ -55908,13 +55797,13 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -55998,7 +55887,7 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
@@ -56007,7 +55896,7 @@
         <v>118</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -56025,13 +55914,13 @@
         <v>92</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="CD246" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="CG246" s="1" t="s">
         <v>130</v>
@@ -56075,13 +55964,13 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2970</v>
+        <v>2967</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2971</v>
+        <v>2968</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2972</v>
+        <v>2969</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -56165,7 +56054,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2973</v>
+        <v>2970</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
@@ -56174,7 +56063,7 @@
         <v>118</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -56195,10 +56084,10 @@
         <v>562</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="CG247" s="1" t="s">
         <v>130</v>
@@ -56242,13 +56131,13 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="N248" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -56281,7 +56170,7 @@
         <v>106</v>
       </c>
       <c r="AG248" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="AH248" s="1" t="s">
         <v>2222</v>
@@ -56332,7 +56221,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BG248" s="1" t="s">
         <v>115</v>
@@ -56344,7 +56233,7 @@
         <v>159</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56362,13 +56251,13 @@
         <v>101</v>
       </c>
       <c r="CC248" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CD248" s="1" t="s">
         <v>986</v>
       </c>
       <c r="CE248" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CG248" s="1" t="s">
         <v>130</v>
@@ -56412,13 +56301,13 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="N249" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56505,7 +56394,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="BG249" s="1" t="s">
         <v>115</v>
@@ -56514,7 +56403,7 @@
         <v>118</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56523,7 +56412,7 @@
         <v>0</v>
       </c>
       <c r="BZ249" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CA249" s="1" t="s">
         <v>124</v>
@@ -56532,13 +56421,13 @@
         <v>101</v>
       </c>
       <c r="CC249" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="CE249" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CG249" s="1" t="s">
         <v>130</v>
@@ -56576,7 +56465,7 @@
         <v>94</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>96</v>
@@ -56585,10 +56474,10 @@
         <v>250</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N250" s="1" t="s">
         <v>252</v>
@@ -56618,7 +56507,7 @@
         <v>42582</v>
       </c>
       <c r="AD250" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="AF250" s="1" t="s">
         <v>106</v>
@@ -56675,13 +56564,13 @@
         <v>0</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BH250" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BI250" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="BM250" s="1" t="s">
         <v>118</v>
@@ -56723,10 +56612,10 @@
         <v>262</v>
       </c>
       <c r="CG250" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CH250" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="CI250" s="1" t="s">
         <v>130</v>
@@ -56746,7 +56635,7 @@
         <v>228</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>92</v>
@@ -56764,16 +56653,16 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N251" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="Q251" s="3">
         <v>17060</v>
@@ -56806,13 +56695,13 @@
         <v>42628</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="AF251" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG251" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AH251" s="1" t="s">
         <v>138</v>
@@ -56857,22 +56746,22 @@
         <v>101</v>
       </c>
       <c r="AZ251" s="1" t="s">
+        <v>3005</v>
+      </c>
+      <c r="BB251" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC251" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD251" s="1" t="s">
+        <v>3006</v>
+      </c>
+      <c r="BH251" s="1" t="s">
+        <v>3007</v>
+      </c>
+      <c r="BI251" s="1" t="s">
         <v>3008</v>
-      </c>
-      <c r="BB251" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC251" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD251" s="1" t="s">
-        <v>3009</v>
-      </c>
-      <c r="BH251" s="1" t="s">
-        <v>3010</v>
-      </c>
-      <c r="BI251" s="1" t="s">
-        <v>3011</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
@@ -56881,7 +56770,7 @@
         <v>105</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -56890,7 +56779,7 @@
         <v>0</v>
       </c>
       <c r="BZ251" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="CA251" s="1" t="s">
         <v>124</v>
@@ -56905,13 +56794,13 @@
         <v>126</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CH251" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CI251" s="1" t="s">
         <v>130</v>
@@ -56931,7 +56820,7 @@
         <v>228</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>101</v>
@@ -56949,16 +56838,16 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="Q252" s="3">
         <v>26864</v>
@@ -56988,7 +56877,7 @@
         <v>42735</v>
       </c>
       <c r="AD252" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF252" s="1" t="s">
         <v>106</v>
@@ -57042,10 +56931,10 @@
         <v>0</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BM252" s="1" t="s">
         <v>118</v>
@@ -57057,13 +56946,13 @@
         <v>219</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BS252" s="3">
         <v>102</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -57084,16 +56973,16 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
+        <v>3022</v>
+      </c>
+      <c r="CD252" s="1" t="s">
+        <v>3023</v>
+      </c>
+      <c r="CE252" s="1" t="s">
+        <v>3024</v>
+      </c>
+      <c r="CG252" s="1" t="s">
         <v>3025</v>
-      </c>
-      <c r="CD252" s="1" t="s">
-        <v>3026</v>
-      </c>
-      <c r="CE252" s="1" t="s">
-        <v>3027</v>
-      </c>
-      <c r="CG252" s="1" t="s">
-        <v>3028</v>
       </c>
       <c r="CH252" s="1" t="s">
         <v>130</v>
@@ -57134,16 +57023,16 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="Q253" s="3">
         <v>25379</v>
@@ -57173,7 +57062,7 @@
         <v>39800</v>
       </c>
       <c r="AD253" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="AF253" s="1" t="s">
         <v>234</v>
@@ -57227,10 +57116,10 @@
         <v>0</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BM253" s="1" t="s">
         <v>118</v>
@@ -57242,13 +57131,13 @@
         <v>1688</v>
       </c>
       <c r="BR253" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BS253" s="3">
         <v>35915</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -57278,10 +57167,10 @@
         <v>437</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CG253" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CH253" s="1" t="s">
         <v>130</v>
@@ -57304,7 +57193,7 @@
         <v>90</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>101</v>
@@ -57316,22 +57205,22 @@
         <v>94</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="Q254" s="3">
         <v>17470</v>
@@ -57361,7 +57250,7 @@
         <v>43100</v>
       </c>
       <c r="AD254" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="AF254" s="1" t="s">
         <v>106</v>
@@ -57418,10 +57307,10 @@
         <v>0</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BM254" s="1" t="s">
         <v>118</v>
@@ -57430,7 +57319,7 @@
         <v>105</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57454,16 +57343,16 @@
         <v>101</v>
       </c>
       <c r="CC254" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3049</v>
+        <v>3046</v>
       </c>
       <c r="CG254" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CH254" s="1" t="s">
         <v>130</v>
@@ -57504,16 +57393,16 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3050</v>
+        <v>3047</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="Q255" s="3">
         <v>23356</v>
@@ -57540,7 +57429,7 @@
         <v>43105</v>
       </c>
       <c r="AD255" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="AF255" s="1" t="s">
         <v>106</v>
@@ -57594,10 +57483,10 @@
         <v>0</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BM255" s="1" t="s">
         <v>118</v>
@@ -57609,13 +57498,13 @@
         <v>102</v>
       </c>
       <c r="BR255" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BS255" s="3">
         <v>34412</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -57633,16 +57522,16 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>2385</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="CG255" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CH255" s="1" t="s">
         <v>130</v>
@@ -57683,16 +57572,16 @@
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="Q256" s="3">
         <v>17726</v>
@@ -57725,7 +57614,7 @@
         <v>43312</v>
       </c>
       <c r="AD256" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="AF256" s="1" t="s">
         <v>234</v>
@@ -57776,7 +57665,7 @@
         <v>101</v>
       </c>
       <c r="AZ256" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="BB256" s="1">
         <v>0</v>
@@ -57785,10 +57674,10 @@
         <v>0</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BM256" s="1" t="s">
         <v>118</v>
@@ -57797,7 +57686,7 @@
         <v>105</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57815,16 +57704,16 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CE256" s="1" t="s">
         <v>922</v>
       </c>
       <c r="CG256" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CH256" s="1" t="s">
         <v>130</v>
@@ -57865,16 +57754,16 @@
         <v>96</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="Q257" s="3">
         <v>22645</v>
@@ -57901,13 +57790,13 @@
         <v>43298</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG257" s="1" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="AH257" s="1" t="s">
         <v>61</v>
@@ -57955,13 +57844,13 @@
         <v>0</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BI257" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
@@ -57970,13 +57859,13 @@
         <v>102</v>
       </c>
       <c r="BR257" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BS257" s="3">
         <v>35209</v>
       </c>
       <c r="BT257" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BU257" s="1" t="s">
         <v>122</v>
@@ -57985,7 +57874,7 @@
         <v>0</v>
       </c>
       <c r="BZ257" s="1" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="CA257" s="1" t="s">
         <v>124</v>
@@ -57997,16 +57886,16 @@
         <v>1719</v>
       </c>
       <c r="CD257" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CE257" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -58026,7 +57915,7 @@
         <v>90</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>92</v>
@@ -58038,22 +57927,22 @@
         <v>94</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="Q258" s="3">
         <v>17041</v>
@@ -58080,7 +57969,7 @@
         <v>42735</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>106</v>
@@ -58137,10 +58026,10 @@
         <v>0</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -58149,7 +58038,7 @@
         <v>105</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -58161,7 +58050,7 @@
         <v>110</v>
       </c>
       <c r="BZ258" s="1" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="CA258" s="1" t="s">
         <v>124</v>
@@ -58170,16 +58059,16 @@
         <v>101</v>
       </c>
       <c r="CC258" s="1" t="s">
+        <v>3084</v>
+      </c>
+      <c r="CD258" s="1" t="s">
+        <v>3085</v>
+      </c>
+      <c r="CE258" s="1" t="s">
+        <v>3086</v>
+      </c>
+      <c r="CG258" s="1" t="s">
         <v>3087</v>
-      </c>
-      <c r="CD258" s="1" t="s">
-        <v>3088</v>
-      </c>
-      <c r="CE258" s="1" t="s">
-        <v>3089</v>
-      </c>
-      <c r="CG258" s="1" t="s">
-        <v>3090</v>
       </c>
       <c r="CH258" s="1" t="s">
         <v>130</v>
@@ -58220,16 +58109,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="Q259" s="3">
         <v>30147</v>
@@ -58252,17 +58141,12 @@
       <c r="AA259" s="1">
         <v>0</v>
       </c>
-      <c r="AC259" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD259" s="1" t="s">
-        <v>2831</v>
-      </c>
+      <c r="AC259" s="3"/>
       <c r="AF259" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG259" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH259" s="1" t="s">
         <v>376</v>
@@ -58310,10 +58194,10 @@
         <v>0</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
@@ -58325,13 +58209,13 @@
         <v>102</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BS259" s="3">
         <v>37124</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -58349,16 +58233,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="CD259" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="CE259" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CG259" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58399,16 +58283,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="Q260" s="3">
         <v>17821</v>
@@ -58444,7 +58328,7 @@
         <v>43388</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>106</v>
@@ -58495,7 +58379,7 @@
         <v>101</v>
       </c>
       <c r="AZ260" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="BB260" s="1">
         <v>0</v>
@@ -58504,10 +58388,10 @@
         <v>0</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -58516,7 +58400,7 @@
         <v>105</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -58534,16 +58418,16 @@
         <v>101</v>
       </c>
       <c r="CC260" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="CE260" s="1" t="s">
         <v>509</v>
       </c>
       <c r="CG260" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58557,10 +58441,10 @@
         <v>87</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>1272</v>
@@ -58575,7 +58459,7 @@
         <v>93</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I261" s="1" t="s">
         <v>1272</v>
@@ -58584,13 +58468,13 @@
         <v>792</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>100</v>
@@ -58641,7 +58525,7 @@
         <v>0</v>
       </c>
       <c r="AN261" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="AO261" s="1">
         <v>0</v>
@@ -58677,7 +58561,7 @@
         <v>19</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BE261" s="1" t="s">
         <v>113</v>
@@ -58689,13 +58573,13 @@
         <v>115</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58722,10 +58606,10 @@
         <v>1103</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CG261" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58763,16 +58647,16 @@
         <v>1598</v>
       </c>
       <c r="J262" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="N262" s="1" t="s">
         <v>3122</v>
-      </c>
-      <c r="K262" s="1" t="s">
-        <v>3123</v>
-      </c>
-      <c r="L262" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="N262" s="1" t="s">
-        <v>3125</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>100</v>
@@ -58859,7 +58743,7 @@
         <v>19</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BG262" s="1" t="s">
         <v>115</v>
@@ -58868,7 +58752,7 @@
         <v>118</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -58877,7 +58761,7 @@
         <v>0</v>
       </c>
       <c r="BZ262" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="CA262" s="1" t="s">
         <v>124</v>
@@ -58889,10 +58773,10 @@
         <v>1265</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CG262" s="1" t="s">
         <v>130</v>
@@ -58909,10 +58793,10 @@
         <v>87</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1272</v>
@@ -58927,7 +58811,7 @@
         <v>93</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I263" s="1" t="s">
         <v>1272</v>
@@ -58936,13 +58820,13 @@
         <v>792</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>100</v>
@@ -58993,7 +58877,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -59029,7 +58913,7 @@
         <v>19</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BE263" s="1" t="s">
         <v>113</v>
@@ -59041,13 +58925,13 @@
         <v>115</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -59068,16 +58952,16 @@
         <v>92</v>
       </c>
       <c r="CC263" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="CD263" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="CE263" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="CG263" s="1" t="s">
         <v>3138</v>
-      </c>
-      <c r="CD263" s="1" t="s">
-        <v>3139</v>
-      </c>
-      <c r="CE263" s="1" t="s">
-        <v>3140</v>
-      </c>
-      <c r="CG263" s="1" t="s">
-        <v>3141</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59091,10 +58975,10 @@
         <v>87</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>1272</v>
@@ -59109,7 +58993,7 @@
         <v>93</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I264" s="1" t="s">
         <v>1272</v>
@@ -59118,13 +59002,13 @@
         <v>792</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>100</v>
@@ -59211,7 +59095,7 @@
         <v>19</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BE264" s="1" t="s">
         <v>113</v>
@@ -59223,13 +59107,13 @@
         <v>115</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -59250,7 +59134,7 @@
         <v>101</v>
       </c>
       <c r="CC264" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CD264" s="1" t="s">
         <v>601</v>
@@ -59259,7 +59143,7 @@
         <v>509</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59273,10 +59157,10 @@
         <v>87</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>1272</v>
@@ -59291,7 +59175,7 @@
         <v>93</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I265" s="1" t="s">
         <v>1272</v>
@@ -59300,13 +59184,13 @@
         <v>792</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>100</v>
@@ -59360,7 +59244,7 @@
         <v>0</v>
       </c>
       <c r="AN265" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO265" s="1">
         <v>0</v>
@@ -59396,7 +59280,7 @@
         <v>19</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BE265" s="1" t="s">
         <v>113</v>
@@ -59408,13 +59292,13 @@
         <v>115</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59438,13 +59322,13 @@
         <v>493</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CG265" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59458,10 +59342,10 @@
         <v>87</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>1272</v>
@@ -59476,7 +59360,7 @@
         <v>93</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I266" s="1" t="s">
         <v>1272</v>
@@ -59485,13 +59369,13 @@
         <v>792</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>100</v>
@@ -59578,7 +59462,7 @@
         <v>19</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BE266" s="1" t="s">
         <v>113</v>
@@ -59590,13 +59474,13 @@
         <v>115</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59617,16 +59501,16 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="CD266" s="1" t="s">
         <v>612</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59640,10 +59524,10 @@
         <v>87</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>1272</v>
@@ -59658,7 +59542,7 @@
         <v>93</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I267" s="1" t="s">
         <v>1272</v>
@@ -59667,13 +59551,13 @@
         <v>792</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>100</v>
@@ -59709,7 +59593,7 @@
         <v>106</v>
       </c>
       <c r="AG267" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="AH267" s="1" t="s">
         <v>1274</v>
@@ -59727,7 +59611,7 @@
         <v>0</v>
       </c>
       <c r="AN267" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="AO267" s="1">
         <v>0</v>
@@ -59763,7 +59647,7 @@
         <v>19</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="BE267" s="1" t="s">
         <v>113</v>
@@ -59775,13 +59659,13 @@
         <v>115</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59802,16 +59686,16 @@
         <v>101</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="CD267" s="1" t="s">
         <v>1029</v>
       </c>
       <c r="CE267" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -59825,10 +59709,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1272</v>
@@ -59843,7 +59727,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1272</v>
@@ -59852,13 +59736,13 @@
         <v>792</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -59912,7 +59796,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59948,7 +59832,7 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BE268" s="1" t="s">
         <v>113</v>
@@ -59960,13 +59844,13 @@
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -59990,13 +59874,13 @@
         <v>1013</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -60010,10 +59894,10 @@
         <v>87</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>1272</v>
@@ -60028,7 +59912,7 @@
         <v>93</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I269" s="1" t="s">
         <v>1272</v>
@@ -60037,13 +59921,13 @@
         <v>792</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -60097,7 +59981,7 @@
         <v>0</v>
       </c>
       <c r="AN269" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="AO269" s="1">
         <v>0</v>
@@ -60133,7 +60017,7 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BE269" s="1" t="s">
         <v>113</v>
@@ -60145,13 +60029,13 @@
         <v>115</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="BM269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -60178,10 +60062,10 @@
         <v>2192</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CG269" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60195,10 +60079,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1272</v>
@@ -60213,7 +60097,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1272</v>
@@ -60222,13 +60106,13 @@
         <v>792</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="L270" s="1" t="s">
         <v>2332</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -60264,7 +60148,7 @@
         <v>106</v>
       </c>
       <c r="AG270" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="AH270" s="1" t="s">
         <v>1274</v>
@@ -60279,7 +60163,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -60312,19 +60196,19 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -60342,16 +60226,16 @@
         <v>101</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>3198</v>
+      </c>
+      <c r="CD270" s="1" t="s">
+        <v>3199</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3200</v>
+      </c>
+      <c r="CG270" s="1" t="s">
         <v>3201</v>
-      </c>
-      <c r="CD270" s="1" t="s">
-        <v>3202</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3203</v>
-      </c>
-      <c r="CG270" s="1" t="s">
-        <v>3204</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60365,10 +60249,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1272</v>
@@ -60383,7 +60267,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1272</v>
@@ -60392,19 +60276,19 @@
         <v>792</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="L271" s="1" t="s">
         <v>2340</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P271" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="Q271" s="3">
         <v>16452</v>
@@ -60482,19 +60366,19 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -60515,16 +60399,16 @@
         <v>2261</v>
       </c>
       <c r="CC271" s="1" t="s">
+        <v>3208</v>
+      </c>
+      <c r="CD271" s="1" t="s">
+        <v>3209</v>
+      </c>
+      <c r="CE271" s="1" t="s">
+        <v>3210</v>
+      </c>
+      <c r="CG271" s="1" t="s">
         <v>3211</v>
-      </c>
-      <c r="CD271" s="1" t="s">
-        <v>3212</v>
-      </c>
-      <c r="CE271" s="1" t="s">
-        <v>3213</v>
-      </c>
-      <c r="CG271" s="1" t="s">
-        <v>3214</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60538,10 +60422,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1272</v>
@@ -60556,7 +60440,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1272</v>
@@ -60565,13 +60449,13 @@
         <v>792</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -60655,19 +60539,19 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="BG272" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -60688,13 +60572,13 @@
         <v>1218</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="CG272" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60708,10 +60592,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1272</v>
@@ -60726,7 +60610,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1272</v>
@@ -60735,13 +60619,13 @@
         <v>792</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -60792,7 +60676,7 @@
         <v>0</v>
       </c>
       <c r="AN273" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="AO273" s="1">
         <v>0</v>
@@ -60828,7 +60712,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -60840,13 +60724,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -60867,16 +60751,16 @@
         <v>92</v>
       </c>
       <c r="CC273" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -60890,10 +60774,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1272</v>
@@ -60908,7 +60792,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1272</v>
@@ -60917,13 +60801,13 @@
         <v>792</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -60977,7 +60861,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -61013,7 +60897,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -61025,13 +60909,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -61052,16 +60936,16 @@
         <v>101</v>
       </c>
       <c r="CC274" s="1" t="s">
+        <v>3236</v>
+      </c>
+      <c r="CD274" s="1" t="s">
+        <v>3237</v>
+      </c>
+      <c r="CE274" s="1" t="s">
+        <v>3238</v>
+      </c>
+      <c r="CG274" s="1" t="s">
         <v>3239</v>
-      </c>
-      <c r="CD274" s="1" t="s">
-        <v>3240</v>
-      </c>
-      <c r="CE274" s="1" t="s">
-        <v>3241</v>
-      </c>
-      <c r="CG274" s="1" t="s">
-        <v>3242</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -61075,10 +60959,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1272</v>
@@ -61093,7 +60977,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1272</v>
@@ -61102,13 +60986,13 @@
         <v>792</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
@@ -61162,7 +61046,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -61198,7 +61082,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>113</v>
@@ -61210,13 +61094,13 @@
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
@@ -61237,16 +61121,16 @@
         <v>101</v>
       </c>
       <c r="CC275" s="1" t="s">
+        <v>3246</v>
+      </c>
+      <c r="CD275" s="1" t="s">
+        <v>3247</v>
+      </c>
+      <c r="CE275" s="1" t="s">
+        <v>3248</v>
+      </c>
+      <c r="CG275" s="1" t="s">
         <v>3249</v>
-      </c>
-      <c r="CD275" s="1" t="s">
-        <v>3250</v>
-      </c>
-      <c r="CE275" s="1" t="s">
-        <v>3251</v>
-      </c>
-      <c r="CG275" s="1" t="s">
-        <v>3252</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -61260,10 +61144,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1272</v>
@@ -61278,7 +61162,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1272</v>
@@ -61287,13 +61171,13 @@
         <v>792</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
@@ -61380,7 +61264,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>113</v>
@@ -61392,13 +61276,13 @@
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -61419,16 +61303,16 @@
         <v>101</v>
       </c>
       <c r="CC276" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="CD276" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="CE276" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61442,10 +61326,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1272</v>
@@ -61460,7 +61344,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1272</v>
@@ -61469,13 +61353,13 @@
         <v>792</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
@@ -61529,7 +61413,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61565,7 +61449,7 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="BE277" s="1" t="s">
         <v>113</v>
@@ -61577,19 +61461,19 @@
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW277" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="BX277" s="1">
         <v>0</v>
@@ -61607,16 +61491,16 @@
         <v>101</v>
       </c>
       <c r="CC277" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="CD277" s="1" t="s">
         <v>1281</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="CG277" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61630,10 +61514,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1272</v>
@@ -61648,7 +61532,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1272</v>
@@ -61657,13 +61541,13 @@
         <v>792</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
@@ -61714,7 +61598,7 @@
         <v>0</v>
       </c>
       <c r="AN278" s="1" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="AO278" s="1">
         <v>0</v>
@@ -61750,7 +61634,7 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BE278" s="1" t="s">
         <v>113</v>
@@ -61762,13 +61646,13 @@
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61789,16 +61673,16 @@
         <v>101</v>
       </c>
       <c r="CC278" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="CG278" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61812,10 +61696,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1272</v>
@@ -61830,7 +61714,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1272</v>
@@ -61839,13 +61723,13 @@
         <v>792</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
@@ -61872,7 +61756,7 @@
         <v>0</v>
       </c>
       <c r="AG279" s="1" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="AH279" s="1" t="s">
         <v>376</v>
@@ -61887,7 +61771,7 @@
         <v>0</v>
       </c>
       <c r="AN279" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="AO279" s="1">
         <v>0</v>
@@ -61917,7 +61801,7 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="BE279" s="1" t="s">
         <v>113</v>
@@ -61929,13 +61813,13 @@
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -61953,16 +61837,16 @@
         <v>101</v>
       </c>
       <c r="CC279" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="CD279" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="CG279" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -61976,10 +61860,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1272</v>
@@ -61994,7 +61878,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1272</v>
@@ -62003,13 +61887,13 @@
         <v>792</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
@@ -62093,7 +61977,7 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="BE280" s="1" t="s">
         <v>113</v>
@@ -62105,13 +61989,13 @@
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -62129,16 +62013,16 @@
         <v>101</v>
       </c>
       <c r="CC280" s="1" t="s">
+        <v>3294</v>
+      </c>
+      <c r="CD280" s="1" t="s">
+        <v>3295</v>
+      </c>
+      <c r="CE280" s="1" t="s">
+        <v>3296</v>
+      </c>
+      <c r="CG280" s="1" t="s">
         <v>3297</v>
-      </c>
-      <c r="CD280" s="1" t="s">
-        <v>3298</v>
-      </c>
-      <c r="CE280" s="1" t="s">
-        <v>3299</v>
-      </c>
-      <c r="CG280" s="1" t="s">
-        <v>3300</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -62152,10 +62036,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1272</v>
@@ -62170,7 +62054,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1272</v>
@@ -62179,13 +62063,13 @@
         <v>792</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
@@ -62272,7 +62156,7 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="BE281" s="1" t="s">
         <v>113</v>
@@ -62284,13 +62168,13 @@
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>122</v>
@@ -62308,16 +62192,16 @@
         <v>101</v>
       </c>
       <c r="CC281" s="1" t="s">
+        <v>3304</v>
+      </c>
+      <c r="CD281" s="1" t="s">
+        <v>3305</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3306</v>
+      </c>
+      <c r="CG281" s="1" t="s">
         <v>3307</v>
-      </c>
-      <c r="CD281" s="1" t="s">
-        <v>3308</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3309</v>
-      </c>
-      <c r="CG281" s="1" t="s">
-        <v>3310</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>130</v>
@@ -62331,10 +62215,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1272</v>
@@ -62349,7 +62233,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1272</v>
@@ -62358,13 +62242,13 @@
         <v>792</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
@@ -62373,7 +62257,7 @@
         <v>101</v>
       </c>
       <c r="Q282" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="R282" s="1" t="s">
         <v>136</v>
@@ -62415,7 +62299,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62448,7 +62332,7 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="BE282" s="1" t="s">
         <v>113</v>
@@ -62460,13 +62344,13 @@
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>122</v>
@@ -62484,16 +62368,16 @@
         <v>101</v>
       </c>
       <c r="CC282" s="1" t="s">
+        <v>3316</v>
+      </c>
+      <c r="CD282" s="1" t="s">
+        <v>3317</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="CG282" s="1" t="s">
         <v>3319</v>
-      </c>
-      <c r="CD282" s="1" t="s">
-        <v>3320</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3321</v>
-      </c>
-      <c r="CG282" s="1" t="s">
-        <v>3322</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>130</v>
@@ -62503,6 +62387,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI282" xr:uid="{E724304A-C2B0-4318-A833-031B0949D6E9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>